--- a/biology/Médecine/Messaoudi_Hassan/Messaoudi_Hassan.xlsx
+++ b/biology/Médecine/Messaoudi_Hassan/Messaoudi_Hassan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Messaoudi Hassan ( Messaoudi Hassène), né en 1967, est un chirurgien renommé pratiquant depuis plus de vingt ans dans l'Etablissement Public Hospitalier de Bordj Menaiel en tant que chef du service de chirurgie générale.
-Il meurt emporté par le Corona virus le 29 décembre 2021 à l'hôpital de Tizi Ouzou, après plus de 15 jours d’hospitalisation[1]. Connu pour ses qualités humaines et son professionnalisme, le Dr Messaoudi (54 ans) jouit d’une grande estime parmi ses collègues de travail, mais aussi auprès de la population locale qu’il a tant servie. "C’est une grande perte pour l’hôpital, notre wilaya et toute l’Algérie." Déclara un patient[2].
-Il était une compétence très reconnue dans le domaine de la chirurgie. "C’était une personne modeste et serviable. Dommage, il est parti trop tôt, alors qu’il avait encore beaucoup à donner. Puisse Dieu donner du courage à sa famille, notamment sa femme et ses trois enfants, pour surmonter cette dure épreuve", dira avec émotion Abdenour, employé de l’hôpital. Le docteur Messaoudi a rendu l’âme au service de réanimation du CHU de Tizi Ouzou, où il a été transféré à la suite de complications de son état de santé. Son nom s’ajoute désormais à la longue liste des victimes causées par la Covid-19 parmi le personnel médical[3].
+Il meurt emporté par le Corona virus le 29 décembre 2021 à l'hôpital de Tizi Ouzou, après plus de 15 jours d’hospitalisation. Connu pour ses qualités humaines et son professionnalisme, le Dr Messaoudi (54 ans) jouit d’une grande estime parmi ses collègues de travail, mais aussi auprès de la population locale qu’il a tant servie. "C’est une grande perte pour l’hôpital, notre wilaya et toute l’Algérie." Déclara un patient.
+Il était une compétence très reconnue dans le domaine de la chirurgie. "C’était une personne modeste et serviable. Dommage, il est parti trop tôt, alors qu’il avait encore beaucoup à donner. Puisse Dieu donner du courage à sa famille, notamment sa femme et ses trois enfants, pour surmonter cette dure épreuve", dira avec émotion Abdenour, employé de l’hôpital. Le docteur Messaoudi a rendu l’âme au service de réanimation du CHU de Tizi Ouzou, où il a été transféré à la suite de complications de son état de santé. Son nom s’ajoute désormais à la longue liste des victimes causées par la Covid-19 parmi le personnel médical.
 </t>
         </is>
       </c>
